--- a/Antworten.xlsx
+++ b/Antworten.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtutt\Documents\Code\PollingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EAB872-EF49-40D9-9E47-E24E25C847A8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9480" xr2:uid="{05A5365B-C00E-44E6-A047-EDB5D53DA575}"/>
   </bookViews>
@@ -29,22 +30,22 @@
     <t>item</t>
   </si>
   <si>
-    <t>Volle Zustimmung</t>
-  </si>
-  <si>
-    <t>Zustimmung</t>
-  </si>
-  <si>
-    <t>teilweise Zustimmung</t>
-  </si>
-  <si>
-    <t>keine Zustimmung</t>
-  </si>
-  <si>
     <t>kann ich nicht beurteilen</t>
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>trifft zu</t>
+  </si>
+  <si>
+    <t>trifft eher zu</t>
+  </si>
+  <si>
+    <t>trifft eher nicht zu</t>
+  </si>
+  <si>
+    <t>trifft nicht zu</t>
   </si>
 </sst>
 </file>
@@ -398,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF08F25-6AEC-4E92-9D38-E1AC327A043E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -407,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -415,7 +418,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -423,7 +426,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -431,7 +434,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -439,7 +442,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -447,7 +450,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>-1</v>
